--- a/Antioxidante/Data/Antioxidante_gaby_tidy.xlsx
+++ b/Antioxidante/Data/Antioxidante_gaby_tidy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Gaby\Ilex-Guayusa-antidiabetic-and-antioxidant\Antioxidante\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A35BF89-9630-498C-8511-5C27A58DBD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA018596-9599-4541-A78E-580BA89F8495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,18 @@
     <sheet name="clean_wide" sheetId="1" r:id="rId1"/>
     <sheet name="dictionary" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -551,7 +562,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,6 +627,9 @@
       <c r="I2">
         <v>0.57799999999999996</v>
       </c>
+      <c r="J2">
+        <v>0.5655</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -645,6 +659,9 @@
       <c r="I3">
         <v>0.44900000000000001</v>
       </c>
+      <c r="J3">
+        <v>0.39849999999999997</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -674,6 +691,9 @@
       <c r="I4">
         <v>0.41099999999999998</v>
       </c>
+      <c r="J4">
+        <v>0.36549999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -700,6 +720,12 @@
       <c r="H5">
         <v>0.223</v>
       </c>
+      <c r="I5">
+        <v>0.223</v>
+      </c>
+      <c r="J5">
+        <v>0.223</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -725,6 +751,12 @@
       </c>
       <c r="H6">
         <v>0.21099999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.223</v>
+      </c>
+      <c r="J6">
+        <v>0.223</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
